--- a/sem02/f229/exp05/data/garrafa_térmica_aberta.xlsx
+++ b/sem02/f229/exp05/data/garrafa_térmica_aberta.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">TEMPO (s)</t>
+    <t xml:space="preserve">Tempo (s)</t>
   </si>
   <si>
     <t xml:space="preserve">Tensão (mV)</t>
@@ -248,12 +248,12 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.29"/>
   </cols>
   <sheetData>
